--- a/PT50摩托车四缸平衡仪表/项目资料/摩托车四缸平衡仪项目-软件需求分析A1-20240516.xlsx
+++ b/PT50摩托车四缸平衡仪表/项目资料/摩托车四缸平衡仪项目-软件需求分析A1-20240516.xlsx
@@ -1572,8 +1572,8 @@
   <sheetPr/>
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
